--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,132 +46,84 @@
     <t>worst</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>boring</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
     <t>ass</t>
   </si>
   <si>
@@ -184,166 +136,115 @@
     <t>false</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>sad</t>
+    <t>0.95-negative</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>0.95-negative</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -725,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS54"/>
+  <dimension ref="A1:BS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,28 +634,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="S1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AT1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="BC1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="BL1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -956,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03564424818354488</v>
+        <v>0.03900562487956763</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -974,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.1175250586540966</v>
+        <v>0.01528204306219805</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -998,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04221748797759562</v>
+        <v>0.04627342328503026</v>
       </c>
       <c r="U3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="V3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1022,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AC3">
-        <v>0.0641378831544258</v>
+        <v>0.09042450313458719</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1046,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.2388482816133255</v>
+        <v>0.05689559018532181</v>
       </c>
       <c r="AM3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AN3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1070,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AU3">
-        <v>0.04886947511821374</v>
+        <v>0.06911107200514875</v>
       </c>
       <c r="AV3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AW3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1094,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.2015048714685435</v>
+        <v>0.07389105722578829</v>
       </c>
       <c r="BE3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="BF3">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1118,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="BM3">
-        <v>0.04163475290013108</v>
+        <v>0.05894468823135764</v>
       </c>
       <c r="BN3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BO3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1142,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1150,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0115974431681488</v>
+        <v>0.01169783430517923</v>
       </c>
       <c r="C4">
         <v>26</v>
@@ -1171,16 +1072,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.1003086096359601</v>
+        <v>0.0121886441263243</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1192,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01374444957708571</v>
+        <v>0.01386372448172656</v>
       </c>
       <c r="U4">
         <v>26</v>
@@ -1219,16 +1120,16 @@
         <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AC4">
-        <v>0.05615671978008182</v>
+        <v>0.07477543100573564</v>
       </c>
       <c r="AD4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1240,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.08048720885616277</v>
+        <v>0.01702925627821882</v>
       </c>
       <c r="AM4">
         <v>26</v>
@@ -1267,16 +1168,16 @@
         <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AU4">
-        <v>0.04352954736311067</v>
+        <v>0.0586627127240671</v>
       </c>
       <c r="AV4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1288,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.07023169613822404</v>
+        <v>0.02209410715260642</v>
       </c>
       <c r="BE4">
         <v>26</v>
@@ -1315,16 +1216,16 @@
         <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="BM4">
-        <v>0.0375463378091115</v>
+        <v>0.05097703899581564</v>
       </c>
       <c r="BN4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BO4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1336,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1344,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.006012344860517815</v>
+        <v>0.007754887071620851</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1362,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.0902454945234866</v>
+        <v>0.01046722549583197</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1386,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.007121316731804252</v>
+        <v>0.009035054611615844</v>
       </c>
       <c r="U5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1410,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AC5">
-        <v>0.05184261254780431</v>
+        <v>0.06673721571962118</v>
       </c>
       <c r="AD5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1434,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.04359479119125576</v>
+        <v>0.0109060687085316</v>
       </c>
       <c r="AM5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AN5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1458,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AU5">
-        <v>0.04085962147769562</v>
+        <v>0.05371415944443145</v>
       </c>
       <c r="AV5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1482,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.0396031390660199</v>
+        <v>0.01389969126359682</v>
       </c>
       <c r="BE5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BF5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1506,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="BM5">
-        <v>0.03565548432551405</v>
+        <v>0.04750223668093102</v>
       </c>
       <c r="BN5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BO5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1530,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1538,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005958281900339047</v>
+        <v>0.006064402037147438</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1556,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>0.01001503627229291</v>
+      </c>
+      <c r="L6">
         <v>22</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6">
-        <v>0.08693154013726941</v>
-      </c>
-      <c r="L6">
-        <v>24</v>
-      </c>
       <c r="M6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1580,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.006864517670955103</v>
+        <v>0.007183174915330064</v>
       </c>
       <c r="U6">
         <v>13</v>
@@ -1604,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6">
+        <v>0.06430072028811526</v>
+      </c>
+      <c r="AD6">
         <v>22</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC6">
-        <v>0.05047648449951921</v>
-      </c>
-      <c r="AD6">
-        <v>24</v>
-      </c>
       <c r="AE6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1628,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.04108806477772713</v>
+        <v>0.008818304506520058</v>
       </c>
       <c r="AM6">
         <v>13</v>
@@ -1652,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU6">
+        <v>0.05199443941485227</v>
+      </c>
+      <c r="AV6">
         <v>22</v>
       </c>
-      <c r="AT6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU6">
-        <v>0.04005055993523102</v>
-      </c>
-      <c r="AV6">
-        <v>24</v>
-      </c>
       <c r="AW6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1676,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03662598739823551</v>
+        <v>0.01143451185242405</v>
       </c>
       <c r="BE6">
         <v>13</v>
@@ -1700,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM6">
+        <v>0.04612441438575914</v>
+      </c>
+      <c r="BN6">
         <v>22</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM6">
-        <v>0.03511038097810494</v>
-      </c>
-      <c r="BN6">
-        <v>24</v>
-      </c>
       <c r="BO6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1724,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1732,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003425695703120203</v>
+        <v>0.003452895697846544</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1750,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.04966969553006714</v>
+        <v>0.006551648831622625</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1774,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004022156672303607</v>
+        <v>0.004045406129845218</v>
       </c>
       <c r="U7">
         <v>7</v>
@@ -1798,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AC7">
-        <v>0.03401092205223502</v>
+        <v>0.04782246231826064</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1822,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.02615432483818955</v>
+        <v>0.004911382915074051</v>
       </c>
       <c r="AM7">
         <v>7</v>
@@ -1846,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AU7">
-        <v>0.02953260791464535</v>
+        <v>0.04164313830530304</v>
       </c>
       <c r="AV7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1870,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.02497614266987331</v>
+        <v>0.006296945771440183</v>
       </c>
       <c r="BE7">
         <v>7</v>
@@ -1894,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="BM7">
-        <v>0.02741062121413721</v>
+        <v>0.03869563637580097</v>
       </c>
       <c r="BN7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1918,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1926,13 +1827,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003423121276445023</v>
+        <v>0.003032201018573719</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1944,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.03378648663413908</v>
+        <v>0.004077579870143969</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1974,38 +1875,38 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004009928145596504</v>
+        <v>0.003591587457665032</v>
       </c>
       <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8">
+        <v>0.0328263597105509</v>
+      </c>
+      <c r="AD8">
         <v>7</v>
       </c>
-      <c r="V8">
+      <c r="AE8">
         <v>7</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC8">
-        <v>0.02635334330902437</v>
-      </c>
-      <c r="AD8">
-        <v>8</v>
-      </c>
-      <c r="AE8">
-        <v>8</v>
-      </c>
       <c r="AF8">
         <v>1</v>
       </c>
@@ -2016,44 +1917,44 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.02603495691373581</v>
+        <v>0.004409152253260029</v>
       </c>
       <c r="AM8">
+        <v>6</v>
+      </c>
+      <c r="AN8">
+        <v>6</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU8">
+        <v>0.03193284516842299</v>
+      </c>
+      <c r="AV8">
         <v>7</v>
       </c>
-      <c r="AN8">
+      <c r="AW8">
         <v>7</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>5</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU8">
-        <v>0.02455679204657419</v>
-      </c>
-      <c r="AV8">
-        <v>8</v>
-      </c>
-      <c r="AW8">
-        <v>8</v>
-      </c>
       <c r="AX8">
         <v>1</v>
       </c>
@@ -2064,44 +1965,44 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.02483437354283596</v>
+        <v>0.005717255926212024</v>
       </c>
       <c r="BE8">
+        <v>6</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM8">
+        <v>0.03150664388306599</v>
+      </c>
+      <c r="BN8">
         <v>7</v>
       </c>
-      <c r="BF8">
+      <c r="BO8">
         <v>7</v>
       </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>1</v>
-      </c>
-      <c r="BI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>5</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM8">
-        <v>0.02370552128517283</v>
-      </c>
-      <c r="BN8">
-        <v>8</v>
-      </c>
-      <c r="BO8">
-        <v>8</v>
-      </c>
       <c r="BP8">
         <v>1</v>
       </c>
@@ -2112,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2120,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003006172430258908</v>
+        <v>0.003029632246113015</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2138,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.03263512444266361</v>
+        <v>0.003491643937738029</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2162,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003560658365902126</v>
+        <v>0.003579385788476688</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2186,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AC9">
-        <v>0.02495126141283556</v>
+        <v>0.03262544601173803</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2210,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.0237847361060537</v>
+        <v>0.00438287173500821</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2234,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AU9">
-        <v>0.02370727362777272</v>
+        <v>0.03170574789328404</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2258,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.0231762710088503</v>
+        <v>0.005668449249458645</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2282,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="BM9">
-        <v>0.02311782736420204</v>
+        <v>0.03126705719297152</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2306,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2314,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003003598003583728</v>
+        <v>0.003019357156270198</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2332,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.02930096139747609</v>
+        <v>0.003481368847895213</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2356,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003548429839195023</v>
+        <v>0.003530579111723308</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2380,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AC10">
-        <v>0.02344131797293566</v>
+        <v>0.03069123482726424</v>
       </c>
       <c r="AD10">
         <v>6</v>
@@ -2410,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02366536818159996</v>
+        <v>0.00427774966200093</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2428,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AU10">
-        <v>0.02273638457996061</v>
+        <v>0.03055377105155224</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2458,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02303450188181294</v>
+        <v>0.005473222542445125</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2476,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="BM10">
-        <v>0.02240236172254617</v>
+        <v>0.0304882016230358</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2508,7 +2409,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002576351450696895</v>
+        <v>0.002598662476997372</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2529,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.02590617237537758</v>
+        <v>0.003054867348963188</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2556,7 +2457,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003050245952672236</v>
+        <v>0.003076760439543121</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2577,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AC11">
-        <v>0.02344131797293566</v>
+        <v>0.03069123482726424</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2604,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02093767567610287</v>
+        <v>0.003775519000186907</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2625,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AU11">
-        <v>0.02273638457996061</v>
+        <v>0.03055377105155224</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2652,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02080932283967787</v>
+        <v>0.004893532697216966</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2673,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BM11">
-        <v>0.02240236172254617</v>
+        <v>0.0304882016230358</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2702,13 +2603,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002558330463970639</v>
+        <v>0.002165123935421026</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2720,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.02590617237537758</v>
+        <v>0.003054867348963188</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2750,13 +2651,13 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.00296464626572252</v>
+        <v>0.00256193342142121</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2768,19 +2669,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="AC12">
-        <v>0.02034952339732844</v>
+        <v>0.02506731859410431</v>
       </c>
       <c r="AD12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2792,19 +2693,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.02010210020492666</v>
+        <v>0.003141885747113786</v>
       </c>
       <c r="AM12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2816,19 +2717,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="AU12">
-        <v>0.02071369273166264</v>
+        <v>0.02630300006337048</v>
       </c>
       <c r="AV12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2846,13 +2747,13 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.01981693895041641</v>
+        <v>0.004069809468221908</v>
       </c>
       <c r="BE12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -2864,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="BM12">
-        <v>0.02088624929211107</v>
+        <v>0.02731308149789798</v>
       </c>
       <c r="BN12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2896,13 +2797,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002146530471134883</v>
+        <v>0.001731585393844681</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2917,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.01907617701323991</v>
+        <v>0.001739400037717254</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2944,13 +2845,13 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002539833539442346</v>
+        <v>0.002047106403299299</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2965,16 +2866,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AC13">
-        <v>0.01934210662369144</v>
+        <v>0.02418540332799787</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2986,19 +2887,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>282</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.01809061524615204</v>
+        <v>0.002508252494040665</v>
       </c>
       <c r="AM13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3013,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AU13">
-        <v>0.01978326056018741</v>
+        <v>0.02624622574458575</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3034,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.01844237467050545</v>
+        <v>0.003246086239226851</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3061,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="BM13">
-        <v>0.0202133742240169</v>
+        <v>0.02725318482537436</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3082,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3090,31 +2991,31 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002146530471134883</v>
+        <v>0.001721310304001864</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.01570159665011173</v>
+        <v>0.00173683126525655</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3132,37 +3033,37 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002539833539442346</v>
+        <v>0.001998299726545919</v>
       </c>
       <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>4</v>
       </c>
-      <c r="V14">
-        <v>4</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
       <c r="AB14" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AC14">
-        <v>0.01887553380533223</v>
+        <v>0.02413517490329465</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3180,37 +3081,37 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.01809061524615204</v>
+        <v>0.002403130421033386</v>
       </c>
       <c r="AM14">
+        <v>3</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <v>4</v>
       </c>
-      <c r="AN14">
-        <v>4</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
       <c r="AT14" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AU14">
-        <v>0.01974280368385053</v>
+        <v>0.02545138528159942</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3228,37 +3129,37 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.01844237467050545</v>
+        <v>0.003050859532213332</v>
       </c>
       <c r="BE14">
+        <v>3</v>
+      </c>
+      <c r="BF14">
+        <v>3</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
         <v>4</v>
       </c>
-      <c r="BF14">
-        <v>4</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>1</v>
-      </c>
-      <c r="BI14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
       <c r="BL14" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="BM14">
-        <v>0.0201707836504552</v>
+        <v>0.02641463141004373</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3276,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3284,13 +3185,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002118211777707909</v>
+        <v>0.001708466441698342</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3302,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.0156813879911414</v>
+        <v>0.001700868450806691</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3326,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002405319745664221</v>
+        <v>0.001937291380604194</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3350,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AC15">
-        <v>0.01883957995742852</v>
+        <v>0.02343197695744965</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3374,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.01677756807716086</v>
+        <v>0.002271727829774286</v>
       </c>
       <c r="AM15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3398,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AU15">
-        <v>0.01941914867315551</v>
+        <v>0.0250374745840692</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -3422,19 +3323,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.01688291427309458</v>
+        <v>0.002806826148446432</v>
       </c>
       <c r="BE15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3446,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="BM15">
-        <v>0.01983005906196169</v>
+        <v>0.02641443258291502</v>
       </c>
       <c r="BN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP15">
         <v>1</v>
@@ -3470,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3478,13 +3379,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00171670949157287</v>
+        <v>0.001298046852268334</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3499,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.01551971871937878</v>
+        <v>0.001528760695939509</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -3520,19 +3421,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002029421126212457</v>
+        <v>0.001532279385177388</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3547,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AC16">
-        <v>0.01855194917419891</v>
+        <v>0.02215073529411764</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3568,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.01524355481620122</v>
+        <v>0.001874619240967544</v>
       </c>
       <c r="AM16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3595,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AU16">
-        <v>0.019257321167808</v>
+        <v>0.02492392594649973</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -3616,19 +3517,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.01607542650133303</v>
+        <v>0.002422363010231793</v>
       </c>
       <c r="BE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3643,16 +3544,16 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="BM16">
-        <v>0.01965969676771493</v>
+        <v>0.02629463923786779</v>
       </c>
       <c r="BN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>1</v>
@@ -3664,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3672,13 +3573,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00171670949157287</v>
+        <v>0.00129547807980763</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3690,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.01543888408349747</v>
+        <v>0.001346377851229511</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -3714,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002029421126212457</v>
+        <v>0.001520077715989043</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3738,19 +3639,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AC17">
-        <v>0.01840813378258411</v>
+        <v>0.02205027844471122</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -3762,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.01524355481620122</v>
+        <v>0.001848338722715724</v>
       </c>
       <c r="AM17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3786,19 +3687,19 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AU17">
-        <v>0.01913595053879736</v>
+        <v>0.02481037730893025</v>
       </c>
       <c r="AV17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX17">
         <v>1</v>
@@ -3810,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.01607542650133303</v>
+        <v>0.002373556333478413</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3834,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="BM17">
-        <v>0.01954049915592272</v>
+        <v>0.02617484589282055</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3858,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3866,13 +3767,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001714135064897691</v>
+        <v>0.00129547807980763</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3887,16 +3788,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.01537825810658648</v>
+        <v>0.001307760993863821</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3908,19 +3809,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002017192599505354</v>
+        <v>0.001520077715989043</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3935,16 +3836,16 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AC18">
-        <v>0.018300272238873</v>
+        <v>0.02194982159530479</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -3956,19 +3857,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.01512418689174747</v>
+        <v>0.001848338722715724</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3983,10 +3884,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AU18">
-        <v>0.01885282838871218</v>
+        <v>0.02424263412108288</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4004,19 +3905,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.01593365737429568</v>
+        <v>0.002373556333478413</v>
       </c>
       <c r="BE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4031,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="BM18">
-        <v>0.01954049915592272</v>
+        <v>0.02557587916758438</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4052,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4060,7 +3961,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001286888512010858</v>
+        <v>0.001292909307346926</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4078,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.01376156538896023</v>
+        <v>0.001302623448942412</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4102,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001519008712982567</v>
+        <v>0.001507876046800698</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4126,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>0.01740154421333602</v>
+        <v>0.02144753734827264</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4150,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.01239649438625039</v>
+        <v>0.001822058204463904</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4174,19 +4075,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AU19">
-        <v>0.01885282838871218</v>
+        <v>0.02365840046719844</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -4204,7 +4105,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.01370847833216061</v>
+        <v>0.002324749656725033</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4222,19 +4123,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="BM19">
-        <v>0.01954049915592272</v>
+        <v>0.02539599032288482</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4254,7 +4155,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001286888512010858</v>
+        <v>0.001292909307346926</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4272,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.01232701628698355</v>
+        <v>0.001297485904021004</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4296,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001519008712982567</v>
+        <v>0.001507876046800698</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4320,19 +4221,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="AC20">
-        <v>0.01740154421333602</v>
+        <v>0.02006667250233427</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -4344,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01239649438625039</v>
+        <v>0.001822058204463904</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4368,19 +4269,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AU20">
-        <v>0.01885282838871218</v>
+        <v>0.02365840046719844</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -4398,7 +4299,7 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.01370847833216061</v>
+        <v>0.002324749656725033</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4416,19 +4317,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="BM20">
-        <v>0.01954049915592272</v>
+        <v>0.02539599032288482</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4448,7 +4349,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001286888512010858</v>
+        <v>0.001292909307346926</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4466,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.01232701628698355</v>
+        <v>0.001271798179413962</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4490,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001519008712982567</v>
+        <v>0.001507876046800698</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4514,19 +4415,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AC21">
-        <v>0.01740154421333602</v>
+        <v>0.020015610410831</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -4544,7 +4445,7 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01239649438625039</v>
+        <v>0.001822058204463904</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4562,19 +4463,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="AU21">
-        <v>0.01885282838871218</v>
+        <v>0.02360162614841371</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4586,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.01370847833216061</v>
+        <v>0.002324749656725033</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4610,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="BM21">
-        <v>0.01954049915592272</v>
+        <v>0.0253360936503612</v>
       </c>
       <c r="BN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4634,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4642,7 +4543,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001286888512010858</v>
+        <v>0.001287771762425517</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4660,13 +4561,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.01232701628698355</v>
+        <v>0.001104827969468189</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4684,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001519008712982567</v>
+        <v>0.001483472708424008</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4708,19 +4609,19 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AC22">
-        <v>0.01740154421333602</v>
+        <v>0.020015610410831</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4738,7 +4639,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01239649438625039</v>
+        <v>0.001769497167960264</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4756,19 +4657,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AU22">
-        <v>0.01885282838871218</v>
+        <v>0.02360162614841371</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -4780,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.01370847833216061</v>
+        <v>0.002227136303218274</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4804,19 +4705,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="BM22">
-        <v>0.01953192504702986</v>
+        <v>0.0253360936503612</v>
       </c>
       <c r="BN22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4828,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4836,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001286888512010858</v>
+        <v>0.001282634217504109</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4854,19 +4755,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.01232701628698355</v>
+        <v>0.0008709844050889791</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4884,7 +4785,7 @@
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001519008712982567</v>
+        <v>0.001459069370047318</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -4902,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AC23">
-        <v>0.01740154421333602</v>
+        <v>0.01996538198612778</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4926,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01239649438625039</v>
+        <v>0.001716936131456624</v>
       </c>
       <c r="AM23">
         <v>2</v>
@@ -4950,19 +4851,19 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AU23">
-        <v>0.01877191463603842</v>
+        <v>0.02354485182962897</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4980,7 +4881,7 @@
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.01370847833216061</v>
+        <v>0.002129522949711514</v>
       </c>
       <c r="BE23">
         <v>2</v>
@@ -4998,19 +4899,19 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="BM23">
-        <v>0.01945531800879935</v>
+        <v>0.02527619697783759</v>
       </c>
       <c r="BN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP23">
         <v>1</v>
@@ -5030,13 +4931,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001284314085335679</v>
+        <v>0.0008645083106919881</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5048,19 +4949,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.01232701628698355</v>
+        <v>0.0008709844050889791</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -5078,13 +4979,13 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001506780186275465</v>
+        <v>0.001017452367055477</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -5096,19 +4997,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="AC24">
-        <v>0.01732963651752862</v>
+        <v>0.01996538198612778</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -5120,19 +5021,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.01227712646179665</v>
+        <v>0.001240985987894423</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -5144,13 +5045,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AU24">
-        <v>0.01788193934090008</v>
+        <v>0.02348807751084423</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5168,19 +5069,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.01356670920512326</v>
+        <v>0.001598639781236735</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5192,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="BM24">
-        <v>0.01882503351426686</v>
+        <v>0.02521630030531397</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5216,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5224,13 +5125,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001284314085335679</v>
+        <v>0.0008645083106919881</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5242,19 +5143,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.01228659896904289</v>
+        <v>0.0008684156326282749</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -5266,19 +5167,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001506780186275465</v>
+        <v>0.001017452367055477</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5290,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="AC25">
-        <v>0.01589160077343611</v>
+        <v>0.01991515356142457</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5314,19 +5215,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.01227712646179665</v>
+        <v>0.001240985987894423</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5338,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AU25">
-        <v>0.01788193934090008</v>
+        <v>0.02348807751084423</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5362,19 +5263,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.01356670920512326</v>
+        <v>0.001598639781236735</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5386,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="BM25">
-        <v>0.01882503351426686</v>
+        <v>0.02521630030531397</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5410,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5418,13 +5319,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001281739658660499</v>
+        <v>0.0008619395382312839</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5436,19 +5337,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.00917446548761236</v>
+        <v>0.0008684156326282749</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -5460,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001494551659568362</v>
+        <v>0.001005250697867132</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5484,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AC26">
-        <v>0.01589160077343611</v>
+        <v>0.01986492513672136</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5508,19 +5409,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.0121577585373429</v>
+        <v>0.001214705469642603</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5532,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AU26">
-        <v>0.01788193934090008</v>
+        <v>0.02348807751084423</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5556,19 +5457,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.0134249400780859</v>
+        <v>0.001549833104483356</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5580,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="BM26">
-        <v>0.01882503351426686</v>
+        <v>0.02521630030531397</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5604,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5612,13 +5513,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001281739658660499</v>
+        <v>0.0008619395382312839</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5630,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.008932227264885044</v>
+        <v>0.0008658468601675707</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5654,19 +5555,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001494551659568362</v>
+        <v>0.001005250697867132</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5678,13 +5579,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AC27">
-        <v>0.01589160077343611</v>
+        <v>0.01986492513672136</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5702,19 +5603,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.0121577585373429</v>
+        <v>0.001214705469642603</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5726,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AU27">
-        <v>0.01788193934090008</v>
+        <v>0.02337452887327476</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5750,19 +5651,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.0134249400780859</v>
+        <v>0.001549833104483356</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5774,13 +5675,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="BM27">
-        <v>0.01882503351426686</v>
+        <v>0.02509650696026674</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5798,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5806,13 +5707,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00127659080531014</v>
+        <v>0.0008619395382312839</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5824,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.008932227264885044</v>
+        <v>0.0008632780877068665</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5848,19 +5749,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001470094606154158</v>
+        <v>0.001005250697867132</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5872,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AC28">
-        <v>0.01589160077343611</v>
+        <v>0.01986492513672136</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5896,19 +5797,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.01191902268843541</v>
+        <v>0.001214705469642603</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5920,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="AU28">
-        <v>0.01788193934090008</v>
+        <v>0.02326098023570528</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5944,19 +5845,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.0131414018240112</v>
+        <v>0.001549833104483356</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -5968,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="BM28">
-        <v>0.01882503351426686</v>
+        <v>0.0249767136152195</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5992,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6000,7 +5901,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0008570675324488455</v>
+        <v>0.0008619395382312839</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6018,13 +5919,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.008932227264885044</v>
+        <v>0.0008632780877068665</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6042,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001008596299752677</v>
+        <v>0.001005250697867132</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6066,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AC29">
-        <v>0.01589160077343611</v>
+        <v>0.01976446828731493</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6090,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.00954943395629956</v>
+        <v>0.001214705469642603</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6114,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AU29">
-        <v>0.01788193934090008</v>
+        <v>0.02303388296056633</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6138,13 +6039,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.01134153016298819</v>
+        <v>0.001549833104483356</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6162,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="BM29">
-        <v>0.01882503351426686</v>
+        <v>0.02473712692512504</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6186,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6194,7 +6095,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0008570675324488455</v>
+        <v>0.0008593707657705797</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6212,13 +6113,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.008932227264885044</v>
+        <v>0.0008632780877068665</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6236,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001008596299752677</v>
+        <v>0.0009930490286787872</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6260,13 +6161,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AC30">
-        <v>0.01589160077343611</v>
+        <v>0.0196640114379085</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6284,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.00954943395629956</v>
+        <v>0.001188424951390783</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6308,13 +6209,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AU30">
-        <v>0.01788193934090008</v>
+        <v>0.02240936545393422</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6332,13 +6233,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.01134153016298819</v>
+        <v>0.001501026427729976</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6356,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="BM30">
-        <v>0.01882503351426686</v>
+        <v>0.02407826352736525</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6380,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6388,7 +6289,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0008570675324488455</v>
+        <v>0.0008593707657705797</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6406,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.008932227264885044</v>
+        <v>0.0008581405427854581</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6430,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001008596299752677</v>
+        <v>0.0009930490286787872</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6454,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AC31">
-        <v>0.01589160077343611</v>
+        <v>0.01946309773909564</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6478,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.00954943395629956</v>
+        <v>0.001188424951390783</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6502,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AU31">
-        <v>0.01788193934090008</v>
+        <v>0.02240936545393422</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6526,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.01134153016298819</v>
+        <v>0.001501026427729976</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6550,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="BM31">
-        <v>0.01882503351426686</v>
+        <v>0.02407826352736525</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6574,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6582,7 +6483,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008570675324488455</v>
+        <v>0.0008593707657705797</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6600,13 +6501,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.008932227264885044</v>
+        <v>0.0008530029978640497</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6624,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001008596299752677</v>
+        <v>0.0009930490286787872</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6648,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC32">
-        <v>0.01589160077343611</v>
+        <v>0.01891058506736028</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6672,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.00954943395629956</v>
+        <v>0.001188424951390783</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6696,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AU32">
-        <v>0.01788193934090008</v>
+        <v>0.02218226817879527</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6720,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.01134153016298819</v>
+        <v>0.001501026427729976</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6744,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="BM32">
-        <v>0.01882503351426686</v>
+        <v>0.02383867683727078</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6768,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6776,7 +6677,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008570675324488455</v>
+        <v>0.0008568019933098755</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6794,13 +6695,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.008932227264885044</v>
+        <v>0.0008427279080212328</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6818,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001008596299752677</v>
+        <v>0.0009808473594904422</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6842,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AC33">
-        <v>0.01589160077343611</v>
+        <v>0.01891058506736028</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6866,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.00954943395629956</v>
+        <v>0.001162144433138963</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6890,19 +6791,19 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="AU33">
-        <v>0.0178414824645632</v>
+        <v>0.02164750592302202</v>
       </c>
       <c r="AV33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX33">
         <v>1</v>
@@ -6914,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.01134153016298819</v>
+        <v>0.001452219750976596</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6938,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="BM33">
-        <v>0.01878244294070517</v>
+        <v>0.0224015543509614</v>
       </c>
       <c r="BN33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP33">
         <v>1</v>
@@ -6962,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6970,7 +6871,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008570675324488455</v>
+        <v>0.0008542332208491712</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6988,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.008932227264885044</v>
+        <v>0.0008144714109534867</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7012,13 +6913,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001008596299752677</v>
+        <v>0.0009686456903020972</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7036,13 +6937,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC34">
-        <v>0.01585564692553241</v>
+        <v>0.01870967136854742</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7060,13 +6961,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.00954943395629956</v>
+        <v>0.001135863914887143</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7084,19 +6985,19 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AU34">
-        <v>0.0178414824645632</v>
+        <v>0.02055230340007495</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX34">
         <v>1</v>
@@ -7108,13 +7009,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.01134153016298819</v>
+        <v>0.001403413074223216</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7132,19 +7033,19 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="BM34">
-        <v>0.01878244294070517</v>
+        <v>0.02168259545354929</v>
       </c>
       <c r="BN34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP34">
         <v>1</v>
@@ -7156,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7164,7 +7065,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0008570675324488455</v>
+        <v>0.0008465269034670587</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7182,13 +7083,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.008932227264885044</v>
+        <v>0.0008144714109534867</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7206,13 +7107,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001008596299752677</v>
+        <v>0.0009320406827370624</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7230,19 +7131,19 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AC35">
-        <v>0.01585564692553241</v>
+        <v>0.01818268974256369</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -7254,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.00954943395629956</v>
+        <v>0.001057022360131683</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7278,19 +7179,19 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="AU35">
-        <v>0.0178414824645632</v>
+        <v>0.02005970962173932</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX35">
         <v>1</v>
@@ -7302,13 +7203,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.01134153016298819</v>
+        <v>0.001256993043963076</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7326,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="BM35">
-        <v>0.01878244294070517</v>
+        <v>0.01946621974304676</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7350,39 +7251,15 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.0008570675324488455</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K36">
-        <v>0.008912018605914713</v>
+        <v>0.0008041963211106698</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7400,43 +7277,19 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.001008596299752677</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="AC36">
-        <v>0.01585564692553241</v>
+        <v>0.01650045434840603</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -7448,37 +7301,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0.00954943395629956</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AU36">
-        <v>0.0178414824645632</v>
+        <v>0.01803774290750944</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7496,43 +7325,19 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0.01134153016298819</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="BM36">
-        <v>0.01878244294070517</v>
+        <v>0.01814889060178461</v>
       </c>
       <c r="BN36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP36">
         <v>1</v>
@@ -7544,39 +7349,15 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0008570675324488455</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.008912018605914713</v>
+        <v>0.0006166759314792628</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7594,37 +7375,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.001008596299752677</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AC37">
-        <v>0.01585564692553241</v>
+        <v>0.01504299636521275</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7642,43 +7399,19 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0.00954943395629956</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="AU37">
-        <v>0.01780102558822632</v>
+        <v>0.01761652928930566</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX37">
         <v>1</v>
@@ -7690,43 +7423,19 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>2</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0.01134153016298819</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="BM37">
-        <v>0.01873985236714348</v>
+        <v>0.01767110901149663</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BO37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BP37">
         <v>1</v>
@@ -7738,45 +7447,21 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>2</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008570675324488455</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.008912018605914713</v>
+        <v>0.000174932338693266</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -7788,43 +7473,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001008596299752677</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AC38">
-        <v>0.01581969307762871</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -7836,43 +7497,19 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>2</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.00954943395629956</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AU38">
-        <v>0.01772011183555256</v>
+        <v>0</v>
       </c>
       <c r="AV38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX38">
         <v>1</v>
@@ -7884,43 +7521,19 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>4</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.01134153016298819</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="BM38">
-        <v>0.0186546712200201</v>
+        <v>0</v>
       </c>
       <c r="BN38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP38">
         <v>1</v>
@@ -7932,2919 +7545,7 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39">
-        <v>0.008912018605914713</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC39">
-        <v>0.0157477853818213</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>4</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>1</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU39">
-        <v>0.01772011183555256</v>
-      </c>
-      <c r="AV39">
-        <v>1</v>
-      </c>
-      <c r="AW39">
-        <v>1</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>4</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>1</v>
-      </c>
-      <c r="BL39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM39">
-        <v>0.0186546712200201</v>
-      </c>
-      <c r="BN39">
-        <v>1</v>
-      </c>
-      <c r="BO39">
-        <v>1</v>
-      </c>
-      <c r="BP39">
-        <v>1</v>
-      </c>
-      <c r="BQ39">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40">
-        <v>0.008891809946944386</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>2</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC40">
-        <v>0.0157477853818213</v>
-      </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>4</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU40">
-        <v>0.01772011183555256</v>
-      </c>
-      <c r="AV40">
-        <v>1</v>
-      </c>
-      <c r="AW40">
-        <v>1</v>
-      </c>
-      <c r="AX40">
-        <v>1</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>4</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
-      </c>
-      <c r="BL40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM40">
-        <v>0.0186546712200201</v>
-      </c>
-      <c r="BN40">
-        <v>1</v>
-      </c>
-      <c r="BO40">
-        <v>1</v>
-      </c>
-      <c r="BP40">
-        <v>1</v>
-      </c>
-      <c r="BQ40">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41">
-        <v>0.008851392629003731</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>4</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC41">
-        <v>0.0157477853818213</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>4</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU41">
-        <v>0.01763919808287881</v>
-      </c>
-      <c r="AV41">
-        <v>1</v>
-      </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>6</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
-      </c>
-      <c r="BL41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM41">
-        <v>0.01856949007289672</v>
-      </c>
-      <c r="BN41">
-        <v>1</v>
-      </c>
-      <c r="BO41">
-        <v>1</v>
-      </c>
-      <c r="BP41">
-        <v>1</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42">
-        <v>0.008851392629003731</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>4</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC42">
-        <v>0.0156758776860139</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>6</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU42">
-        <v>0.01743691370119442</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>11</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
-      </c>
-      <c r="BL42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM42">
-        <v>0.01835653720508827</v>
-      </c>
-      <c r="BN42">
-        <v>1</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43">
-        <v>0.008851392629003731</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>4</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC43">
-        <v>0.01549610844649539</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>11</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU43">
-        <v>0.0172750861958469</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>15</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>1</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM43">
-        <v>0.01818617491084151</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K44">
-        <v>0.008810975311063075</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>6</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC44">
-        <v>0.01542396440657687</v>
-      </c>
-      <c r="AD44">
-        <v>3</v>
-      </c>
-      <c r="AE44">
-        <v>3</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>97</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU44">
-        <v>0.01711325869049939</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>19</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>1</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM44">
-        <v>0.01801581261659476</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.000854493105773666</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K45">
-        <v>0.008709932016211433</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>11</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009963677730455748</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC45">
-        <v>0.01535229305488059</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>15</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.009430066031845817</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU45">
-        <v>0.01683006055614125</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>26</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.01119976103595083</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>1</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM45">
-        <v>0.01771767860166293</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008519186790984865</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46">
-        <v>0.00862909738033012</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>15</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009841392463384724</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>2</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC46">
-        <v>0.01520847766326578</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>19</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.00931069810739207</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>2</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU46">
-        <v>0.01662777617445686</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>31</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.01105799190891348</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>2</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM46">
-        <v>0.01750472573385448</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008519186790984865</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47">
-        <v>0.008548262744448809</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>19</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009841392463384724</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>2</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC47">
-        <v>0.01495680072793987</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>26</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.00931069810739207</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>2</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU47">
-        <v>0.01589940043184712</v>
-      </c>
-      <c r="AV47">
-        <v>3</v>
-      </c>
-      <c r="AW47">
-        <v>3</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>97</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.01105799190891348</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>2</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM47">
-        <v>0.01612467916209468</v>
-      </c>
-      <c r="BN47">
-        <v>3</v>
-      </c>
-      <c r="BO47">
-        <v>3</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008519186790984865</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48">
-        <v>0.00840680213165651</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>26</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.0009841392463384724</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>2</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC48">
-        <v>0.01477703148842136</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>31</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.00931069810739207</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>2</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU48">
-        <v>0.01521110164420944</v>
-      </c>
-      <c r="AV48">
-        <v>10</v>
-      </c>
-      <c r="AW48">
-        <v>10</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>282</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.01105799190891348</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>2</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM48">
-        <v>0.01516224418796154</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008493442524233071</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49">
-        <v>0.008305758836804872</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>31</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.0009719107196313702</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>3</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC49">
-        <v>0.01279956985371777</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>86</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.009191330182938327</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>3</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU49">
-        <v>0.01440264797592857</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>86</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.01091622278187613</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>3</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM49">
-        <v>0.01325368254477312</v>
-      </c>
-      <c r="BN49">
-        <v>10</v>
-      </c>
-      <c r="BO49">
-        <v>10</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008467698257481277</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50">
-        <v>0.007194282593436821</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>86</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.0009596821929242678</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>4</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC50">
-        <v>0.01179274394035857</v>
-      </c>
-      <c r="AD50">
-        <v>2</v>
-      </c>
-      <c r="AE50">
-        <v>2</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>156</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.009071962258484582</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>4</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU50">
-        <v>0.01254155568015921</v>
-      </c>
-      <c r="AV50">
-        <v>2</v>
-      </c>
-      <c r="AW50">
-        <v>2</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>156</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.01077445365483878</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>4</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM50">
-        <v>0.01289636968029913</v>
-      </c>
-      <c r="BN50">
-        <v>2</v>
-      </c>
-      <c r="BO50">
-        <v>2</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008416209723977689</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>6</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51">
-        <v>0.004041731794065631</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>242</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.0009352251395100631</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>6</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC51">
-        <v>0.007190769580740324</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>242</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.008833226409577092</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>6</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU51">
-        <v>0.0080913752673756</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>242</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.01049091540076407</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>6</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM51">
-        <v>0.008518114712337946</v>
-      </c>
-      <c r="BN51">
-        <v>1</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.0008390465457225895</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>7</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>442</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52">
-        <v>0.000922996612802961</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>7</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>442</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52">
-        <v>0.008713858485123349</v>
-      </c>
-      <c r="AM52">
-        <v>1</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>7</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>442</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD52">
-        <v>0.01034914627372672</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ52">
-        <v>7</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM52">
-        <v>0</v>
-      </c>
-      <c r="BN52">
-        <v>1</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="1:71">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.0008390465457225895</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>7</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53">
-        <v>0.000922996612802961</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>7</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53">
-        <v>0.008713858485123349</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>7</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD53">
-        <v>0.01034914627372672</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:71">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.0006511133984344903</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>80</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T54">
-        <v>3.031416318449107E-05</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-      <c r="Y54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>80</v>
-      </c>
-      <c r="AK54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>1</v>
-      </c>
-      <c r="AN54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>80</v>
-      </c>
-      <c r="BC54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>1</v>
-      </c>
-      <c r="BF54">
-        <v>1</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>1</v>
-      </c>
-      <c r="BI54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>80</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
